--- a/data/default_staff_list.xlsx
+++ b/data/default_staff_list.xlsx
@@ -13,7 +13,7 @@
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{A1AB1725-9614-4760-9E35-FCE78E076BF2}" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet0" r:id="rId5" sheetId="19"/>
+    <sheet name="Sheet1" r:id="rId6" sheetId="20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="40">
   <si>
     <t>Name</t>
   </si>
@@ -148,6 +148,12 @@
   </si>
   <si>
     <t>gh11</t>
+  </si>
+  <si>
+    <t>weixu see</t>
+  </si>
+  <si>
+    <t>woed</t>
   </si>
 </sst>
 </file>
@@ -498,9 +504,9 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -726,6 +732,26 @@
         <v>32</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>1230.0</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
